--- a/biology/Zoologie/Bombus_fervidus/Bombus_fervidus.xlsx
+++ b/biology/Zoologie/Bombus_fervidus/Bombus_fervidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombus fervidus est une espèce de bourdons originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 13 à 16 mm de long.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Canada, aux États-Unis ainsi qu'au Mexique. On le trouve dans les champs, les jardins et les parcs. Il niche habituellement au sol, mais peut aussi créer des nids souterrains[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Canada, aux États-Unis ainsi qu'au Mexique. On le trouve dans les champs, les jardins et les parcs. Il niche habituellement au sol, mais peut aussi créer des nids souterrains.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une des espèces de bourdons les plus agressives, probablement en raison de la difficulté à protéger un nid à même le sol[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une des espèces de bourdons les plus agressives, probablement en raison de la difficulté à protéger un nid à même le sol.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se nourrit de pollen et de nectar, notamment d'astragale, de cirse, d'héliante, de chèvrefeuille, de Lythrum, de Monarda, de Pedicularis, de Penstemon, de trèfle et de Vicia[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nourrit de pollen et de nectar, notamment d'astragale, de cirse, d'héliante, de chèvrefeuille, de Lythrum, de Monarda, de Pedicularis, de Penstemon, de trèfle et de Vicia.
 </t>
         </is>
       </c>
